--- a/src/files/templates/export_template.xlsx
+++ b/src/files/templates/export_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\hieptd\workspace\excel-app\backend\src\files\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Workspace\excel-shared\backend\src\files\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="376">
   <si>
     <t>diaChiChu2</t>
   </si>
@@ -1144,6 +1144,18 @@
   </si>
   <si>
     <t>Thời hạn sử dụng 3</t>
+  </si>
+  <si>
+    <t>Donvicapcu</t>
+  </si>
+  <si>
+    <t>Dientichtangthem</t>
+  </si>
+  <si>
+    <t>Diện tích tăng thêm</t>
+  </si>
+  <si>
+    <t>Đơn vị cấp cũ</t>
   </si>
 </sst>
 </file>
@@ -1751,10 +1763,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:GJ24"/>
+  <dimension ref="A1:GL24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="T24" sqref="T24"/>
+    <sheetView tabSelected="1" topLeftCell="FJ1" workbookViewId="0">
+      <selection activeCell="GL10" sqref="GL10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1762,7 +1774,7 @@
     <col min="189" max="189" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:192" s="4" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:194" s="4" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>103</v>
       </c>
@@ -2339,8 +2351,14 @@
       <c r="GJ1" s="4" t="s">
         <v>294</v>
       </c>
+      <c r="GK1" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="GL1" s="4" t="s">
+        <v>372</v>
+      </c>
     </row>
-    <row r="2" spans="1:192" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:194" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>63</v>
       </c>
@@ -2539,7 +2557,7 @@
       <c r="FZ2" s="12"/>
       <c r="GA2" s="13"/>
     </row>
-    <row r="3" spans="1:192" s="8" customFormat="1" ht="173.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:194" s="8" customFormat="1" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>310</v>
       </c>
@@ -3116,8 +3134,14 @@
       <c r="GJ3" s="8" t="s">
         <v>271</v>
       </c>
+      <c r="GK3" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="GL3" s="8" t="s">
+        <v>375</v>
+      </c>
     </row>
-    <row r="4" spans="1:192" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:194" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>0</v>
       </c>
@@ -3694,61 +3718,67 @@
       <c r="GJ4" s="1">
         <v>190</v>
       </c>
+      <c r="GK4" s="1">
+        <v>191</v>
+      </c>
+      <c r="GL4" s="1">
+        <v>192</v>
+      </c>
     </row>
-    <row r="5" spans="1:192" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:194" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BN5" s="9"/>
       <c r="CD5" s="9"/>
     </row>
-    <row r="6" spans="1:192" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:194" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BN6" s="9"/>
       <c r="CD6" s="9"/>
       <c r="GJ6" s="10"/>
     </row>
-    <row r="7" spans="1:192" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:194" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BN7" s="9"/>
       <c r="CD7" s="9"/>
       <c r="GJ7" s="10"/>
     </row>
-    <row r="8" spans="1:192" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:194" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BN8" s="9"/>
       <c r="CD8" s="9"/>
       <c r="GJ8" s="10"/>
     </row>
-    <row r="9" spans="1:192" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:194" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BN9" s="9"/>
       <c r="CD9" s="9"/>
       <c r="GJ9" s="10"/>
     </row>
-    <row r="10" spans="1:192" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:194" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BN10" s="9"/>
       <c r="CD10" s="9"/>
       <c r="GJ10" s="10"/>
     </row>
-    <row r="11" spans="1:192" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:194" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BN11" s="9"/>
       <c r="CD11" s="9"/>
       <c r="GJ11" s="10"/>
     </row>
-    <row r="12" spans="1:192" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:194" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BN12" s="9"/>
       <c r="CD12" s="9"/>
       <c r="GJ12" s="10"/>
     </row>
-    <row r="13" spans="1:192" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:194" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BN13" s="9"/>
       <c r="CD13" s="9"/>
       <c r="GJ13" s="10"/>
     </row>
-    <row r="14" spans="1:192" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:194" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BN14" s="9"/>
       <c r="CD14" s="9"/>
       <c r="GJ14" s="10"/>
     </row>
-    <row r="15" spans="1:192" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:194" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BN15" s="9"/>
       <c r="CD15" s="9"/>
     </row>
-    <row r="16" spans="1:192" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:194" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BN16" s="9"/>
       <c r="CD16" s="9"/>
     </row>
@@ -3794,7 +3824,7 @@
     <mergeCell ref="DM2:FC2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="12" orientation="landscape" copies="0"/>
+  <pageSetup paperSize="12" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>